--- a/Word/words.xlsx
+++ b/Word/words.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\학매10 (사용자성함)\Downloads\Dev\Sightword\Dev\Word\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8116D863-58B7-4DAE-AAA1-3B225EB46717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D9C9D7-DBC1-4584-B07A-29A376949C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5070" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{3CF2D65B-6993-407B-91CF-F0D0D65DDC3E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3CF2D65B-6993-407B-91CF-F0D0D65DDC3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="229">
   <si>
     <t>noun</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -349,6 +349,387 @@
   </si>
   <si>
     <t>index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>sad</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>beautiful</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>tall</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>smart</t>
+  </si>
+  <si>
+    <t>brave</t>
+  </si>
+  <si>
+    <t>honest</t>
+  </si>
+  <si>
+    <t>polite</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>generous</t>
+  </si>
+  <si>
+    <t>lazy</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>quiet</t>
+  </si>
+  <si>
+    <t>loud</t>
+  </si>
+  <si>
+    <t>hardworking</t>
+  </si>
+  <si>
+    <t>patient</t>
+  </si>
+  <si>
+    <t>curious</t>
+  </si>
+  <si>
+    <t>clever</t>
+  </si>
+  <si>
+    <t>shy</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>weak</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>dirty</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>slow</t>
+  </si>
+  <si>
+    <t>careful</t>
+  </si>
+  <si>
+    <t>careless</t>
+  </si>
+  <si>
+    <t>delicious</t>
+  </si>
+  <si>
+    <t>hungry</t>
+  </si>
+  <si>
+    <t>thirsty</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>cold</t>
+  </si>
+  <si>
+    <t>sleepy</t>
+  </si>
+  <si>
+    <t>awake</t>
+  </si>
+  <si>
+    <t>excited</t>
+  </si>
+  <si>
+    <t>worried</t>
+  </si>
+  <si>
+    <t>surprised</t>
+  </si>
+  <si>
+    <t>bored</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>boring</t>
+  </si>
+  <si>
+    <t>scared</t>
+  </si>
+  <si>
+    <t>proud</t>
+  </si>
+  <si>
+    <t>ashamed</t>
+  </si>
+  <si>
+    <t>confident</t>
+  </si>
+  <si>
+    <t>adjective</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>but</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>so</t>
+  </si>
+  <si>
+    <t>because</t>
+  </si>
+  <si>
+    <t>if</t>
+  </si>
+  <si>
+    <t>when</t>
+  </si>
+  <si>
+    <t>while</t>
+  </si>
+  <si>
+    <t>as</t>
+  </si>
+  <si>
+    <t>although</t>
+  </si>
+  <si>
+    <t>though</t>
+  </si>
+  <si>
+    <t>since</t>
+  </si>
+  <si>
+    <t>until</t>
+  </si>
+  <si>
+    <t>unless</t>
+  </si>
+  <si>
+    <t>provided</t>
+  </si>
+  <si>
+    <t>that</t>
+  </si>
+  <si>
+    <t>after</t>
+  </si>
+  <si>
+    <t>before</t>
+  </si>
+  <si>
+    <t>till</t>
+  </si>
+  <si>
+    <t>once</t>
+  </si>
+  <si>
+    <t>whether</t>
+  </si>
+  <si>
+    <t>whereas</t>
+  </si>
+  <si>
+    <t>conjunctions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>under</t>
+  </si>
+  <si>
+    <t>over</t>
+  </si>
+  <si>
+    <t>at</t>
+  </si>
+  <si>
+    <t>beside</t>
+  </si>
+  <si>
+    <t>between</t>
+  </si>
+  <si>
+    <t>among</t>
+  </si>
+  <si>
+    <t>through</t>
+  </si>
+  <si>
+    <t>into</t>
+  </si>
+  <si>
+    <t>onto</t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>towards</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>against</t>
+  </si>
+  <si>
+    <t>with</t>
+  </si>
+  <si>
+    <t>without</t>
+  </si>
+  <si>
+    <t>about</t>
+  </si>
+  <si>
+    <t>around</t>
+  </si>
+  <si>
+    <t>beyond</t>
+  </si>
+  <si>
+    <t>except</t>
+  </si>
+  <si>
+    <t>during</t>
+  </si>
+  <si>
+    <t>within</t>
+  </si>
+  <si>
+    <t>concerning</t>
+  </si>
+  <si>
+    <t>regarding</t>
+  </si>
+  <si>
+    <t>considering</t>
+  </si>
+  <si>
+    <t>underneath</t>
+  </si>
+  <si>
+    <t>near</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>above</t>
+  </si>
+  <si>
+    <t>along</t>
+  </si>
+  <si>
+    <t>across</t>
+  </si>
+  <si>
+    <t>off</t>
+  </si>
+  <si>
+    <t>below</t>
+  </si>
+  <si>
+    <t>upon</t>
+  </si>
+  <si>
+    <t>up</t>
+  </si>
+  <si>
+    <t>down</t>
+  </si>
+  <si>
+    <t>inside</t>
+  </si>
+  <si>
+    <t>outside</t>
+  </si>
+  <si>
+    <t>as if</t>
+  </si>
+  <si>
+    <t>as though</t>
+  </si>
+  <si>
+    <t>even if</t>
+  </si>
+  <si>
+    <t>even though</t>
+  </si>
+  <si>
+    <t>in case</t>
+  </si>
+  <si>
+    <t>so that</t>
+  </si>
+  <si>
+    <t>in order that</t>
+  </si>
+  <si>
+    <t>as long as</t>
+  </si>
+  <si>
+    <t>as soon as</t>
+  </si>
+  <si>
+    <t>by the time</t>
+  </si>
+  <si>
+    <t>now that</t>
+  </si>
+  <si>
+    <t>provided that</t>
+  </si>
+  <si>
+    <t>preposition</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -356,7 +737,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -387,6 +768,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -410,7 +799,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -420,14 +809,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="8">
     <dxf>
       <font>
         <b val="0"/>
@@ -440,10 +835,11 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
-        <color rgb="FF374151"/>
-        <name val="Segoe UI"/>
-        <family val="2"/>
-        <scheme val="none"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -459,10 +855,71 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
-        <color rgb="FF374151"/>
-        <name val="Segoe UI"/>
-        <family val="2"/>
-        <scheme val="none"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -564,18 +1021,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7810108D-7C66-49FA-975D-D8AA0C93C832}" name="표1" displayName="표1" ref="A1:C51" tableType="xml" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" connectionId="2">
-  <autoFilter ref="A1:C51" xr:uid="{7810108D-7C66-49FA-975D-D8AA0C93C832}"/>
-  <tableColumns count="3">
-    <tableColumn id="3" xr3:uid="{1F1CED70-8203-43C2-86D9-389012D45887}" uniqueName="index" name="index" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7810108D-7C66-49FA-975D-D8AA0C93C832}" name="표1" displayName="표1" ref="A1:F51" tableType="xml" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" connectionId="2">
+  <autoFilter ref="A1:F51" xr:uid="{7810108D-7C66-49FA-975D-D8AA0C93C832}"/>
+  <tableColumns count="6">
+    <tableColumn id="3" xr3:uid="{1F1CED70-8203-43C2-86D9-389012D45887}" uniqueName="index" name="index" dataDxfId="5">
       <xmlColumnPr mapId="4" xpath="/Root/text/index" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{D5CD5ABB-C872-452E-A56E-846DCDC65AF1}" uniqueName="noun" name="verb" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{D5CD5ABB-C872-452E-A56E-846DCDC65AF1}" uniqueName="noun" name="verb" dataDxfId="4">
       <xmlColumnPr mapId="4" xpath="/Root/text/noun" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{C8B80F4B-F52F-4E5F-8167-6945FAD9439C}" uniqueName="verb" name="noun" dataDxfId="0">
+    <tableColumn id="2" xr3:uid="{C8B80F4B-F52F-4E5F-8167-6945FAD9439C}" uniqueName="verb" name="noun" dataDxfId="3">
       <xmlColumnPr mapId="4" xpath="/Root/text/verb" xmlDataType="string"/>
     </tableColumn>
+    <tableColumn id="4" xr3:uid="{EBD42D64-4F8E-4520-B0A4-E9313A388265}" uniqueName="4" name="adjective" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{7113FD8B-5B0C-4B13-B4E4-97A58B01ACE6}" uniqueName="5" name="conjunctions" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{2A922220-CC67-4EBD-9BA3-2A30D1180B30}" uniqueName="6" name="preposition" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -878,10 +1338,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17594DFF-79AD-4D10-BD14-CCAF49EF2B34}">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -891,7 +1351,7 @@
     <col min="3" max="3" width="15.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>102</v>
       </c>
@@ -901,8 +1361,17 @@
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D1" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -912,8 +1381,17 @@
       <c r="C2" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D2" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -923,8 +1401,17 @@
       <c r="C3" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D3" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -934,8 +1421,17 @@
       <c r="C4" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D4" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -945,8 +1441,17 @@
       <c r="C5" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D5" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -956,8 +1461,17 @@
       <c r="C6" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D6" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -967,8 +1481,17 @@
       <c r="C7" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D7" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -978,8 +1501,17 @@
       <c r="C8" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D8" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -989,8 +1521,17 @@
       <c r="C9" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D9" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1000,8 +1541,17 @@
       <c r="C10" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D10" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1011,8 +1561,17 @@
       <c r="C11" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D11" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1022,8 +1581,17 @@
       <c r="C12" s="3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D12" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1033,8 +1601,17 @@
       <c r="C13" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D13" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1044,8 +1621,17 @@
       <c r="C14" s="3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D14" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1055,8 +1641,17 @@
       <c r="C15" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D15" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1066,8 +1661,17 @@
       <c r="C16" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D16" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1077,8 +1681,17 @@
       <c r="C17" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D17" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1088,8 +1701,17 @@
       <c r="C18" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D18" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1099,8 +1721,17 @@
       <c r="C19" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D19" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1110,8 +1741,17 @@
       <c r="C20" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D20" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1121,8 +1761,17 @@
       <c r="C21" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D21" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1132,8 +1781,17 @@
       <c r="C22" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D22" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1143,8 +1801,17 @@
       <c r="C23" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D23" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1154,8 +1821,17 @@
       <c r="C24" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D24" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1165,8 +1841,17 @@
       <c r="C25" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D25" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1176,8 +1861,17 @@
       <c r="C26" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D26" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1187,8 +1881,17 @@
       <c r="C27" s="3" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D27" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1198,8 +1901,17 @@
       <c r="C28" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D28" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1209,8 +1921,17 @@
       <c r="C29" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D29" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1220,8 +1941,17 @@
       <c r="C30" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D30" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1231,8 +1961,17 @@
       <c r="C31" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D31" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1242,8 +1981,17 @@
       <c r="C32" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D32" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1253,8 +2001,17 @@
       <c r="C33" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D33" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1264,8 +2021,17 @@
       <c r="C34" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D34" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1275,8 +2041,17 @@
       <c r="C35" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D35" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1286,8 +2061,17 @@
       <c r="C36" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D36" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1297,8 +2081,17 @@
       <c r="C37" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D37" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1308,8 +2101,17 @@
       <c r="C38" s="3" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D38" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1319,8 +2121,17 @@
       <c r="C39" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D39" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1330,8 +2141,17 @@
       <c r="C40" s="3" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D40" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1341,8 +2161,17 @@
       <c r="C41" s="3" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D41" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1352,8 +2181,17 @@
       <c r="C42" s="3" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D42" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1363,8 +2201,17 @@
       <c r="C43" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D43" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1374,8 +2221,17 @@
       <c r="C44" s="3" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D44" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1385,8 +2241,17 @@
       <c r="C45" s="3" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D45" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -1396,8 +2261,15 @@
       <c r="C46" s="3" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D46" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -1407,8 +2279,15 @@
       <c r="C47" s="3" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D47" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="F47" s="4"/>
+    </row>
+    <row r="48" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -1418,8 +2297,15 @@
       <c r="C48" s="3" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D48" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="F48" s="4"/>
+    </row>
+    <row r="49" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -1429,8 +2315,15 @@
       <c r="C49" s="3" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D49" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="F49" s="4"/>
+    </row>
+    <row r="50" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -1440,8 +2333,15 @@
       <c r="C50" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D50" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="F50" s="4"/>
+    </row>
+    <row r="51" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -1451,6 +2351,13 @@
       <c r="C51" s="3" t="s">
         <v>101</v>
       </c>
+      <c r="D51" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F51" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
